--- a/Crank Nicholsoln.xlsx
+++ b/Crank Nicholsoln.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/repos/pymodels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F7A5DC-698A-034E-B1EF-8DE53FA63D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE44127-5D27-E541-AB2A-1D68C44E80EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{986635A7-8FAD-7340-AB16-6CB8048E18AC}"/>
   </bookViews>
@@ -548,7 +548,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
